--- a/biology/Médecine/Hôpital_de_la_Miséricorde_de_Grosseto/Hôpital_de_la_Miséricorde_de_Grosseto.xlsx
+++ b/biology/Médecine/Hôpital_de_la_Miséricorde_de_Grosseto/Hôpital_de_la_Miséricorde_de_Grosseto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_la_Mis%C3%A9ricorde_de_Grosseto</t>
+          <t>Hôpital_de_la_Miséricorde_de_Grosseto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’hôpital de la Miséricorde (Ospedale della Misericordia) est un centre hospitalier de Grosseto, en Toscane. C'est le principal hôpital de la ville et de la province de Grosseto.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_la_Mis%C3%A9ricorde_de_Grosseto</t>
+          <t>Hôpital_de_la_Miséricorde_de_Grosseto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital a été fondé au XIIIe siècle par les moines du couvent de San Francesco, et a ensuite été acquis par l'hôpital Santa Maria della Scala de Sienne. Il a été rénové et rouvert en 1787 par le grand-duc de Toscane Pierre-Léopold de Habsbourg-Lorraine.
-Dans les années cinquante du XXe siècle, la municipalité de Grosseto a décidé de construire un hôpital moderne à l'extérieur de la vieille ville, car le bâtiment historique ne pouvait plus répondre aux besoins de la population. Le nouveau bâtiment a été financé en partie par l'entrepreneur Ferdinando Innocenti et par la banque Monte dei Paschi di Siena, et conçu par les architectes Mario Luzzetti et Umberto Tombari. La construction a commencé le 17 novembre 1964 et l'hôpital a été achevé en 1974[1],[2].
-En 2004, le chirurgien Pier Cristoforo Giulianotti (en) a fondé l'École internationale d'ingénierie robotique[3].
+Dans les années cinquante du XXe siècle, la municipalité de Grosseto a décidé de construire un hôpital moderne à l'extérieur de la vieille ville, car le bâtiment historique ne pouvait plus répondre aux besoins de la population. Le nouveau bâtiment a été financé en partie par l'entrepreneur Ferdinando Innocenti et par la banque Monte dei Paschi di Siena, et conçu par les architectes Mario Luzzetti et Umberto Tombari. La construction a commencé le 17 novembre 1964 et l'hôpital a été achevé en 1974,.
+En 2004, le chirurgien Pier Cristoforo Giulianotti (en) a fondé l'École internationale d'ingénierie robotique.
 </t>
         </is>
       </c>
